--- a/Enemies.xlsx
+++ b/Enemies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Forest</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Wasp Nest (Chase + Vanity Prop Tripping)</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Chomper (Turn Tile Maze)</t>
+  </si>
+  <si>
+    <t>Spider (Memory Legs)</t>
   </si>
 </sst>
 </file>
@@ -408,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,9 +432,10 @@
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -435,8 +445,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +462,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,6 +492,9 @@
       </c>
       <c r="D4" t="s">
         <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Enemies.xlsx
+++ b/Enemies.xlsx
@@ -42,9 +42,6 @@
     <t>Spiked Snowflake</t>
   </si>
   <si>
-    <t>Reaching Monkey</t>
-  </si>
-  <si>
     <t>Evil Tree (ZigZag)</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Spider (Memory Legs)</t>
+  </si>
+  <si>
+    <t>Tuccan</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -457,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -474,10 +474,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -485,16 +485,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Enemies.xlsx
+++ b/Enemies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Forest</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Tuccan</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,6 +482,9 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
